--- a/乾升数据中台/ 乾升数据中台初期计划v1.0.xlsx
+++ b/乾升数据中台/ 乾升数据中台初期计划v1.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10914"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A57C3E-1F38-594B-A30D-2C59E27529DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32B4565-983A-4047-875F-71CDA733B2B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24800" windowHeight="16000" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="1280" windowWidth="24800" windowHeight="16000" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据中台初期计划表" sheetId="1" r:id="rId1"/>
@@ -391,13 +391,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -426,7 +426,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -448,7 +448,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -456,14 +456,14 @@
     <font>
       <sz val="8"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -491,7 +491,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,6 +766,49 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,6 +822,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,59 +869,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -882,7 +894,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1205,13 +1217,13 @@
   <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -1223,54 +1235,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,220 +1363,220 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="10" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="31">
         <v>0.5</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
     </row>
     <row r="4" spans="1:31" s="10" customFormat="1" ht="24">
-      <c r="A4" s="56"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="31">
         <v>1</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
     </row>
     <row r="5" spans="1:31" s="10" customFormat="1" ht="14" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="31">
         <v>0.5</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
     </row>
     <row r="6" spans="1:31" s="10" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="31">
         <v>0.5</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
     </row>
     <row r="7" spans="1:31" s="10" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="31">
         <v>0.5</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
     </row>
     <row r="8" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31">
         <v>0.5</v>
       </c>
       <c r="F8" s="12"/>
@@ -1595,17 +1607,17 @@
       <c r="AE8" s="12"/>
     </row>
     <row r="9" spans="1:31" ht="36">
-      <c r="A9" s="33"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="31">
         <v>0.5</v>
       </c>
       <c r="F9" s="12"/>
@@ -1636,15 +1648,15 @@
       <c r="AE9" s="12"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="33"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="31">
         <v>0.5</v>
       </c>
       <c r="F10" s="12"/>
@@ -1675,7 +1687,7 @@
       <c r="AE10" s="12"/>
     </row>
     <row r="11" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A11" s="33"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
@@ -1716,7 +1728,7 @@
       <c r="AE11" s="12"/>
     </row>
     <row r="12" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>76</v>
@@ -1755,7 +1767,7 @@
       <c r="AE12" s="12"/>
     </row>
     <row r="13" spans="1:31" ht="24">
-      <c r="A13" s="33"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1796,7 +1808,7 @@
       <c r="AE13" s="12"/>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" s="33"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
         <v>78</v>
@@ -1835,8 +1847,8 @@
       <c r="AE14" s="12"/>
     </row>
     <row r="15" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="64" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1876,7 +1888,7 @@
       <c r="AE15" s="12"/>
     </row>
     <row r="16" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
         <v>80</v>
@@ -1915,17 +1927,17 @@
       <c r="AE16" s="12"/>
     </row>
     <row r="17" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="31">
         <v>0.5</v>
       </c>
       <c r="F17" s="12"/>
@@ -1956,15 +1968,15 @@
       <c r="AE17" s="12"/>
     </row>
     <row r="18" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="31">
         <v>0.5</v>
       </c>
       <c r="F18" s="12"/>
@@ -1995,17 +2007,17 @@
       <c r="AE18" s="12"/>
     </row>
     <row r="19" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="34">
         <v>0.5</v>
       </c>
       <c r="F19" s="12"/>
@@ -2036,15 +2048,15 @@
       <c r="AE19" s="12"/>
     </row>
     <row r="20" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="52" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="34">
         <v>0.5</v>
       </c>
       <c r="F20" s="12"/>
@@ -2075,17 +2087,17 @@
       <c r="AE20" s="12"/>
     </row>
     <row r="21" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="34">
         <v>0.5</v>
       </c>
       <c r="F21" s="12"/>
@@ -2116,15 +2128,15 @@
       <c r="AE21" s="12"/>
     </row>
     <row r="22" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="52" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="34">
         <v>0.5</v>
       </c>
       <c r="F22" s="12"/>
@@ -2155,17 +2167,17 @@
       <c r="AE22" s="12"/>
     </row>
     <row r="23" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="41">
         <v>0.5</v>
       </c>
       <c r="F23" s="12"/>
@@ -2196,15 +2208,15 @@
       <c r="AE23" s="12"/>
     </row>
     <row r="24" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="41">
         <v>0.5</v>
       </c>
       <c r="F24" s="12"/>
@@ -2235,7 +2247,7 @@
       <c r="AE24" s="12"/>
     </row>
     <row r="25" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A25" s="33"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
@@ -2276,7 +2288,7 @@
       <c r="AE25" s="13"/>
     </row>
     <row r="26" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A26" s="33"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
         <v>90</v>
@@ -2315,17 +2327,17 @@
       <c r="AE26" s="13"/>
     </row>
     <row r="27" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="41">
         <v>0.5</v>
       </c>
       <c r="F27" s="12"/>
@@ -2356,15 +2368,15 @@
       <c r="AE27" s="13"/>
     </row>
     <row r="28" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="41">
         <v>0.5</v>
       </c>
       <c r="F28" s="12"/>
@@ -2395,7 +2407,7 @@
       <c r="AE28" s="13"/>
     </row>
     <row r="29" spans="1:31" s="10" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A29" s="33"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
@@ -2436,7 +2448,7 @@
       <c r="AE29" s="14"/>
     </row>
     <row r="30" spans="1:31" s="10" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A30" s="33"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>94</v>
@@ -2475,7 +2487,7 @@
       <c r="AE30" s="14"/>
     </row>
     <row r="31" spans="1:31" s="10" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A31" s="33"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
@@ -2516,7 +2528,7 @@
       <c r="AE31" s="15"/>
     </row>
     <row r="32" spans="1:31" s="10" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A32" s="33"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
         <v>96</v>
@@ -2555,17 +2567,17 @@
       <c r="AE32" s="15"/>
     </row>
     <row r="33" spans="1:31" s="10" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="62" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="41">
         <v>1</v>
       </c>
       <c r="F33" s="12"/>
@@ -2596,7 +2608,7 @@
       <c r="AE33" s="15"/>
     </row>
     <row r="34" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -2639,7 +2651,7 @@
       <c r="AE34" s="12"/>
     </row>
     <row r="35" spans="1:31" ht="15.5" customHeight="1">
-      <c r="A35" s="30"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="8" t="s">
         <v>52</v>
       </c>
@@ -2680,7 +2692,7 @@
       <c r="AE35" s="12"/>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="31"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="8" t="s">
         <v>53</v>
       </c>
@@ -2720,46 +2732,46 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" ht="15">
       <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" ht="15">
       <c r="A38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" ht="15">
       <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" ht="15">
       <c r="A40" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" ht="15">
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" ht="15">
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" ht="15">
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" ht="15">
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" ht="15">
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" ht="15">
       <c r="E46" s="2"/>
     </row>
   </sheetData>
@@ -2789,20 +2801,20 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="21">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="3:7" ht="18">
       <c r="C4" s="25" t="s">
@@ -2844,11 +2856,11 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="3:7" ht="18">
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
